--- a/i2o_SU_SanityBQTest/Testcases/testscenarios-jvc.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios-jvc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_BQ\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD031C-62A8-47FC-8652-30D3F19195BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A5B61-E174-43E8-AF3C-F89123FE1D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Execution status</t>
   </si>
@@ -186,30 +186,6 @@
   </si>
   <si>
     <t>05/28/2020 16:47:28</t>
-  </si>
-  <si>
-    <t>2020-05-17</t>
-  </si>
-  <si>
-    <t>37184.63</t>
-  </si>
-  <si>
-    <t>3389.0</t>
-  </si>
-  <si>
-    <t>94.35450704225353</t>
-  </si>
-  <si>
-    <t>37184.630000000005</t>
-  </si>
-  <si>
-    <t>94.50981012658228</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>05/30/2020 00:16:16</t>
@@ -1001,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -1031,7 +1007,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,7 +1058,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,21 +1117,11 @@
       <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2">
-        <v>-7.2759576141834259E-12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1170,21 +1136,11 @@
       <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1199,21 +1155,11 @@
       <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4">
-        <v>-0.15530308432875017</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1236,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CDF417-2215-4E0A-8781-4759D2E17EB9}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I21"/>
     </sheetView>
   </sheetViews>
